--- a/Bitacioras/11 Bitacora - jhoan sebastian blanco cataño/bitacora 11.xlsx
+++ b/Bitacioras/11 Bitacora - jhoan sebastian blanco cataño/bitacora 11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA CAT\Desktop\Blog-del-centro-agroturistico-SENA\Bitacioras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA CAT\Desktop\Blog-del-centro-agroturistico-SENA\Bitacioras\11 Bitacora - jhoan sebastian blanco cataño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D69FD-4470-4CDB-85F4-BE5E6CF6CBF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3919DD0-964C-40A0-9DBA-4B0AD9A504F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2795,6 +2795,39 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2807,6 +2840,45 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2858,77 +2930,92 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2948,99 +3035,87 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3059,83 +3134,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4122,56 +4122,56 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="174"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="198"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="195"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4183,45 +4183,45 @@
       <c r="C8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="179"/>
+      <c r="E8" s="203"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="182"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="206"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="209"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="188"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="187"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="168"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
       <c r="F12" s="1"/>
       <c r="G12" s="35"/>
     </row>
@@ -4232,84 +4232,84 @@
       <c r="E13" s="76"/>
     </row>
     <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="200"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="172"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="203"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="209"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="182"/>
     </row>
     <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="203"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="172"/>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="203"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
     </row>
     <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="205"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="206"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="175"/>
     </row>
     <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="168"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="186" t="s">
+      <c r="B22" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187" t="s">
+      <c r="C22" s="186"/>
+      <c r="D22" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="188"/>
+      <c r="E22" s="187"/>
     </row>
     <row r="23" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="189"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="191"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="190"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="69" t="s">
@@ -4318,10 +4318,10 @@
       <c r="C24" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="192" t="s">
+      <c r="D24" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="193"/>
+      <c r="E24" s="192"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -4331,8 +4331,8 @@
       <c r="C25" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="194"/>
-      <c r="E25" s="195"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="184"/>
     </row>
     <row r="26" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="58" t="s">
@@ -4341,8 +4341,8 @@
       <c r="C26" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="195"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="184"/>
     </row>
     <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="60" t="s">
@@ -4351,8 +4351,8 @@
       <c r="C27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="194"/>
-      <c r="E27" s="195"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="184"/>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="70" t="s">
@@ -4361,8 +4361,8 @@
       <c r="C28" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="194"/>
-      <c r="E28" s="195"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="184"/>
     </row>
     <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
@@ -4371,10 +4371,10 @@
       <c r="C29" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="194" t="s">
+      <c r="D29" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="195" t="s">
+      <c r="E29" s="184" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4385,10 +4385,10 @@
       <c r="C30" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="195" t="s">
+      <c r="E30" s="184" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4399,8 +4399,8 @@
       <c r="C31" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="194"/>
-      <c r="E31" s="195"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="184"/>
     </row>
     <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="70" t="s">
@@ -4409,10 +4409,10 @@
       <c r="C32" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="194" t="s">
+      <c r="D32" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="195" t="s">
+      <c r="E32" s="184" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4423,8 +4423,8 @@
       <c r="C33" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="194"/>
-      <c r="E33" s="195"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
     </row>
     <row r="34" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="70" t="s">
@@ -4433,8 +4433,8 @@
       <c r="C34" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="194"/>
-      <c r="E34" s="195"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
     </row>
     <row r="35" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B35" s="70" t="s">
@@ -4443,8 +4443,8 @@
       <c r="C35" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="194"/>
-      <c r="E35" s="195"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="184"/>
     </row>
     <row r="36" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="70" t="s">
@@ -4453,8 +4453,8 @@
       <c r="C36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="194"/>
-      <c r="E36" s="195"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="184"/>
     </row>
     <row r="37" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
@@ -4463,8 +4463,8 @@
       <c r="C37" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="184"/>
     </row>
     <row r="38" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" s="70" t="s">
@@ -4473,8 +4473,8 @@
       <c r="C38" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="194"/>
-      <c r="E38" s="195"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="184"/>
     </row>
     <row r="39" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="70" t="s">
@@ -4483,8 +4483,8 @@
       <c r="C39" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="194"/>
-      <c r="E39" s="195"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="184"/>
     </row>
     <row r="40" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="70" t="s">
@@ -4493,8 +4493,8 @@
       <c r="C40" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="194"/>
-      <c r="E40" s="195"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="184"/>
     </row>
     <row r="41" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B41" s="70" t="s">
@@ -4503,8 +4503,8 @@
       <c r="C41" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="194"/>
-      <c r="E41" s="195"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="184"/>
     </row>
     <row r="42" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B42" s="70" t="s">
@@ -4513,8 +4513,8 @@
       <c r="C42" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="184"/>
     </row>
     <row r="43" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B43" s="70" t="s">
@@ -4523,10 +4523,10 @@
       <c r="C43" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="194" t="s">
+      <c r="D43" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="195" t="s">
+      <c r="E43" s="184" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4537,8 +4537,8 @@
       <c r="C44" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="194"/>
-      <c r="E44" s="195"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="184"/>
     </row>
     <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="70" t="s">
@@ -4547,8 +4547,8 @@
       <c r="C45" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="194"/>
-      <c r="E45" s="195"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="184"/>
     </row>
     <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="70" t="s">
@@ -4557,8 +4557,8 @@
       <c r="C46" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="194"/>
-      <c r="E46" s="195"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
     </row>
     <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="70" t="s">
@@ -4567,10 +4567,10 @@
       <c r="C47" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="195" t="s">
+      <c r="E47" s="184" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4581,8 +4581,8 @@
       <c r="C48" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="194"/>
-      <c r="E48" s="195"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="184"/>
     </row>
     <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="70" t="s">
@@ -4591,10 +4591,10 @@
       <c r="C49" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="194" t="s">
+      <c r="D49" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="195" t="s">
+      <c r="E49" s="184" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4605,10 +4605,10 @@
       <c r="C50" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="194" t="s">
+      <c r="D50" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="195" t="s">
+      <c r="E50" s="184" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4619,10 +4619,10 @@
       <c r="C51" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="194" t="s">
+      <c r="D51" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="195" t="s">
+      <c r="E51" s="184" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4633,8 +4633,8 @@
       <c r="C52" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="194"/>
-      <c r="E52" s="195"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="184"/>
     </row>
     <row r="53" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" s="70" t="s">
@@ -4643,8 +4643,8 @@
       <c r="C53" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="194"/>
-      <c r="E53" s="195"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="184"/>
     </row>
     <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="70" t="s">
@@ -4653,8 +4653,8 @@
       <c r="C54" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="194"/>
-      <c r="E54" s="195"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="184"/>
     </row>
     <row r="55" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B55" s="70" t="s">
@@ -4663,8 +4663,8 @@
       <c r="C55" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="194"/>
-      <c r="E55" s="195"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="184"/>
     </row>
     <row r="56" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="71" t="s">
@@ -4673,8 +4673,8 @@
       <c r="C56" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="194"/>
-      <c r="E56" s="195"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="184"/>
     </row>
     <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="72" t="s">
@@ -4683,10 +4683,10 @@
       <c r="C57" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="196" t="s">
+      <c r="D57" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="197" t="s">
+      <c r="E57" s="166" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4704,6 +4704,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B19:E19"/>
@@ -4720,44 +4758,6 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4773,7 +4773,7 @@
   <dimension ref="B1:Z78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,14 +4855,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="195"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -4884,14 +4884,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="198"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4913,14 +4913,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="171"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="195"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -4942,14 +4942,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="174"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -4971,14 +4971,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="171"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="195"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5174,16 +5174,16 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="218">
+      <c r="B14" s="223">
         <v>2557356</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="220" t="s">
+      <c r="C14" s="227"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="225" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="221"/>
-      <c r="G14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="226"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5255,20 +5255,20 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="219"/>
+      <c r="C17" s="224"/>
       <c r="D17" s="120" t="s">
         <v>199</v>
       </c>
       <c r="E17" s="121">
         <v>11</v>
       </c>
-      <c r="F17" s="224" t="s">
+      <c r="F17" s="228" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="225"/>
+      <c r="G17" s="229"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="K17" s="20"/>
@@ -5336,20 +5336,20 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="218" t="s">
+      <c r="B20" s="223" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="219"/>
+      <c r="C20" s="224"/>
       <c r="D20" s="108" t="s">
         <v>200</v>
       </c>
       <c r="E20" s="116">
         <v>3177294629</v>
       </c>
-      <c r="F20" s="233" t="s">
+      <c r="F20" s="237" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="234"/>
+      <c r="G20" s="238"/>
       <c r="H20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -5391,14 +5391,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="213" t="s">
+      <c r="B22" s="242" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="215"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="244"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5423,17 +5423,17 @@
       <c r="B23" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="236" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="219"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="233" t="s">
+      <c r="F23" s="237" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="234"/>
+      <c r="G23" s="238"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5577,10 +5577,10 @@
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="47"/>
-      <c r="F28" s="210" t="s">
+      <c r="F28" s="239" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="211"/>
+      <c r="G28" s="240"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -5607,8 +5607,8 @@
       <c r="E29" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="210"/>
-      <c r="G29" s="211"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="240"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -6490,14 +6490,14 @@
       <c r="Y56" s="22"/>
     </row>
     <row r="57" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="241" t="s">
+      <c r="B57" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="242"/>
-      <c r="D57" s="242"/>
-      <c r="E57" s="242"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="243"/>
+      <c r="C57" s="219"/>
+      <c r="D57" s="219"/>
+      <c r="E57" s="219"/>
+      <c r="F57" s="219"/>
+      <c r="G57" s="220"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
@@ -6756,9 +6756,9 @@
       <c r="Z65" s="18"/>
     </row>
     <row r="66" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="228"/>
-      <c r="C66" s="228"/>
-      <c r="D66" s="228"/>
+      <c r="B66" s="232"/>
+      <c r="C66" s="232"/>
+      <c r="D66" s="232"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
@@ -6783,11 +6783,11 @@
       <c r="Z66" s="18"/>
     </row>
     <row r="67" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="228"/>
-      <c r="C67" s="228"/>
-      <c r="D67" s="228"/>
+      <c r="B67" s="232"/>
+      <c r="C67" s="232"/>
+      <c r="D67" s="232"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="230" t="s">
+      <c r="F67" s="234" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="17"/>
@@ -6812,10 +6812,10 @@
       <c r="Z67" s="18"/>
     </row>
     <row r="68" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="229"/>
-      <c r="C68" s="229"/>
-      <c r="D68" s="229"/>
-      <c r="F68" s="231"/>
+      <c r="B68" s="233"/>
+      <c r="C68" s="233"/>
+      <c r="D68" s="233"/>
+      <c r="F68" s="235"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
@@ -6838,11 +6838,11 @@
       <c r="Z68" s="18"/>
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B69" s="212" t="s">
+      <c r="B69" s="241" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="212"/>
-      <c r="D69" s="212"/>
+      <c r="C69" s="241"/>
+      <c r="D69" s="241"/>
       <c r="F69" s="19" t="s">
         <v>91</v>
       </c>
@@ -6894,11 +6894,11 @@
       <c r="Z70" s="18"/>
     </row>
     <row r="71" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="226"/>
-      <c r="C71" s="226"/>
-      <c r="D71" s="226"/>
-      <c r="F71" s="244"/>
-      <c r="G71" s="244"/>
+      <c r="B71" s="230"/>
+      <c r="C71" s="230"/>
+      <c r="D71" s="230"/>
+      <c r="F71" s="221"/>
+      <c r="G71" s="221"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -6920,11 +6920,11 @@
       <c r="Z71" s="18"/>
     </row>
     <row r="72" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="227"/>
-      <c r="C72" s="227"/>
-      <c r="D72" s="227"/>
-      <c r="F72" s="221"/>
-      <c r="G72" s="221"/>
+      <c r="B72" s="231"/>
+      <c r="C72" s="231"/>
+      <c r="D72" s="231"/>
+      <c r="F72" s="222"/>
+      <c r="G72" s="222"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -6951,10 +6951,10 @@
         <v>93</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="F73" s="212" t="s">
+      <c r="F73" s="241" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="212"/>
+      <c r="G73" s="241"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
@@ -7032,14 +7032,14 @@
       <c r="Z75" s="9"/>
     </row>
     <row r="76" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="235" t="s">
+      <c r="B76" s="210" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="236"/>
-      <c r="D76" s="236"/>
-      <c r="E76" s="236"/>
-      <c r="F76" s="236"/>
-      <c r="G76" s="237"/>
+      <c r="C76" s="211"/>
+      <c r="D76" s="211"/>
+      <c r="E76" s="211"/>
+      <c r="F76" s="211"/>
+      <c r="G76" s="212"/>
       <c r="H76" s="10"/>
       <c r="I76" s="36"/>
       <c r="J76" s="9"/>
@@ -7061,14 +7061,14 @@
       <c r="Z76" s="9"/>
     </row>
     <row r="77" spans="2:26" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="238" t="s">
+      <c r="B77" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="239"/>
-      <c r="D77" s="239"/>
-      <c r="E77" s="239"/>
-      <c r="F77" s="239"/>
-      <c r="G77" s="240"/>
+      <c r="C77" s="214"/>
+      <c r="D77" s="214"/>
+      <c r="E77" s="214"/>
+      <c r="F77" s="214"/>
+      <c r="G77" s="215"/>
     </row>
     <row r="78" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="107"/>
@@ -7099,14 +7099,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B14:D14"/>
@@ -7123,22 +7131,14 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F71:G72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" xr:uid="{A401E140-5526-456E-AB09-9580EADBFEC9}"/>
@@ -7255,124 +7255,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="271" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245" t="s">
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="271"/>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271" t="s">
         <v>162</v>
       </c>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="245"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="253" t="s">
+      <c r="A2" s="271"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="271"/>
+      <c r="N2" s="271"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="275" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="251"/>
-      <c r="M4" s="252"/>
-      <c r="N4" s="250" t="s">
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="275" t="s">
         <v>165</v>
       </c>
-      <c r="O4" s="251"/>
-      <c r="P4" s="251"/>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
-      <c r="T4" s="251"/>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
-      <c r="X4" s="252"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="276"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="276"/>
+      <c r="S4" s="276"/>
+      <c r="T4" s="276"/>
+      <c r="U4" s="276"/>
+      <c r="V4" s="276"/>
+      <c r="W4" s="276"/>
+      <c r="X4" s="277"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="247"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="248"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="248"/>
-      <c r="P5" s="248"/>
-      <c r="Q5" s="248"/>
-      <c r="R5" s="248"/>
-      <c r="S5" s="248"/>
-      <c r="T5" s="248"/>
-      <c r="U5" s="248"/>
-      <c r="V5" s="248"/>
-      <c r="W5" s="248"/>
-      <c r="X5" s="249"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="274"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -7401,66 +7401,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="249" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246" t="s">
+      <c r="K7" s="249"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
+      <c r="O7" s="249"/>
+      <c r="P7" s="249" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="246"/>
-      <c r="S7" s="246"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="246"/>
-      <c r="W7" s="246"/>
-      <c r="X7" s="246"/>
+      <c r="Q7" s="249"/>
+      <c r="R7" s="249"/>
+      <c r="S7" s="249"/>
+      <c r="T7" s="249"/>
+      <c r="U7" s="249"/>
+      <c r="V7" s="249"/>
+      <c r="W7" s="249"/>
+      <c r="X7" s="249"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="255"/>
-      <c r="B8" s="255"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="256" t="s">
+      <c r="A8" s="256"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="257" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="258"/>
-      <c r="P8" s="256" t="s">
+      <c r="K8" s="258"/>
+      <c r="L8" s="258"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="258"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="257" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="257"/>
-      <c r="S8" s="257"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="258"/>
+      <c r="Q8" s="258"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="258"/>
+      <c r="W8" s="258"/>
+      <c r="X8" s="259"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -7489,66 +7489,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="259" t="s">
+      <c r="A10" s="269" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="259"/>
-      <c r="K10" s="259"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="259"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="259"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="259"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="259"/>
-      <c r="U10" s="259"/>
-      <c r="V10" s="259"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="259"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="269"/>
+      <c r="O10" s="269"/>
+      <c r="P10" s="269"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="269"/>
+      <c r="S10" s="269"/>
+      <c r="T10" s="269"/>
+      <c r="U10" s="269"/>
+      <c r="V10" s="269"/>
+      <c r="W10" s="269"/>
+      <c r="X10" s="269"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="260"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260" t="s">
+      <c r="B11" s="270"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="270" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="260"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="260"/>
-      <c r="K11" s="260"/>
-      <c r="L11" s="260"/>
-      <c r="M11" s="260" t="s">
+      <c r="H11" s="270"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="270"/>
+      <c r="K11" s="270"/>
+      <c r="L11" s="270"/>
+      <c r="M11" s="270" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="260"/>
-      <c r="O11" s="260"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260" t="s">
+      <c r="N11" s="270"/>
+      <c r="O11" s="270"/>
+      <c r="P11" s="270"/>
+      <c r="Q11" s="270"/>
+      <c r="R11" s="270"/>
+      <c r="S11" s="270" t="s">
         <v>172</v>
       </c>
-      <c r="T11" s="260"/>
-      <c r="U11" s="260"/>
-      <c r="V11" s="260"/>
-      <c r="W11" s="260"/>
-      <c r="X11" s="260"/>
+      <c r="T11" s="270"/>
+      <c r="U11" s="270"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="270"/>
+      <c r="X11" s="270"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -7577,66 +7577,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="249" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="246"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246" t="s">
+      <c r="B13" s="249"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246" t="s">
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="249"/>
+      <c r="P13" s="249" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
+      <c r="Q13" s="249"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="249"/>
+      <c r="T13" s="249"/>
+      <c r="U13" s="249"/>
+      <c r="V13" s="249"/>
+      <c r="W13" s="249"/>
+      <c r="X13" s="249"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="255"/>
-      <c r="B14" s="255"/>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255"/>
-      <c r="E14" s="255"/>
-      <c r="F14" s="255"/>
-      <c r="G14" s="255"/>
-      <c r="H14" s="255"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="256" t="s">
+      <c r="A14" s="256"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="257" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="256" t="s">
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="257" t="s">
         <v>175</v>
       </c>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="257"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="257"/>
-      <c r="W14" s="257"/>
-      <c r="X14" s="258"/>
+      <c r="Q14" s="258"/>
+      <c r="R14" s="258"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="258"/>
+      <c r="U14" s="258"/>
+      <c r="V14" s="258"/>
+      <c r="W14" s="258"/>
+      <c r="X14" s="259"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -7665,172 +7665,184 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="266" t="s">
+      <c r="A16" s="260" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="266"/>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="267" t="s">
+      <c r="B16" s="260"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="260"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="260"/>
+      <c r="J16" s="261" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="267"/>
-      <c r="L16" s="267"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="266" t="s">
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="260" t="s">
         <v>178</v>
       </c>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="266"/>
-      <c r="R16" s="266"/>
-      <c r="S16" s="266"/>
-      <c r="T16" s="268" t="s">
+      <c r="O16" s="260"/>
+      <c r="P16" s="260"/>
+      <c r="Q16" s="260"/>
+      <c r="R16" s="260"/>
+      <c r="S16" s="260"/>
+      <c r="T16" s="262" t="s">
         <v>179</v>
       </c>
-      <c r="U16" s="268"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="268"/>
-      <c r="X16" s="268"/>
+      <c r="U16" s="262"/>
+      <c r="V16" s="262"/>
+      <c r="W16" s="262"/>
+      <c r="X16" s="262"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="261" t="s">
+      <c r="A17" s="250" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="253"/>
-      <c r="C17" s="253"/>
-      <c r="D17" s="253"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="262"/>
-      <c r="J17" s="269" t="s">
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="263" t="s">
         <v>181</v>
       </c>
-      <c r="K17" s="270"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="261" t="s">
+      <c r="K17" s="264"/>
+      <c r="L17" s="264"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="250" t="s">
         <v>182</v>
       </c>
-      <c r="O17" s="253"/>
-      <c r="P17" s="253"/>
-      <c r="Q17" s="253"/>
-      <c r="R17" s="253"/>
-      <c r="S17" s="262"/>
-      <c r="T17" s="261" t="s">
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
+      <c r="Q17" s="251"/>
+      <c r="R17" s="251"/>
+      <c r="S17" s="252"/>
+      <c r="T17" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="U17" s="253"/>
-      <c r="V17" s="253"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="262"/>
+      <c r="U17" s="251"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="251"/>
+      <c r="X17" s="252"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="265"/>
-      <c r="J18" s="272"/>
-      <c r="K18" s="273"/>
-      <c r="L18" s="273"/>
-      <c r="M18" s="274"/>
-      <c r="N18" s="263"/>
-      <c r="O18" s="264"/>
-      <c r="P18" s="264"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="264"/>
-      <c r="S18" s="265"/>
-      <c r="T18" s="263"/>
-      <c r="U18" s="264"/>
-      <c r="V18" s="264"/>
-      <c r="W18" s="264"/>
-      <c r="X18" s="265"/>
+      <c r="A18" s="253"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="254"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="266"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="268"/>
+      <c r="N18" s="253"/>
+      <c r="O18" s="254"/>
+      <c r="P18" s="254"/>
+      <c r="Q18" s="254"/>
+      <c r="R18" s="254"/>
+      <c r="S18" s="255"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="254"/>
+      <c r="W18" s="254"/>
+      <c r="X18" s="255"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="278" t="s">
+      <c r="A21" s="248" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="278"/>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="278"/>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
+      <c r="B21" s="248"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="278" t="s">
+      <c r="J21" s="248" t="s">
         <v>185</v>
       </c>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
-      <c r="M21" s="278"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="278"/>
+      <c r="K21" s="248"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="248"/>
+      <c r="O21" s="248"/>
+      <c r="P21" s="248"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="278" t="s">
+      <c r="R21" s="248" t="s">
         <v>186</v>
       </c>
-      <c r="S21" s="278"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="278"/>
-      <c r="V21" s="278"/>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
+      <c r="S21" s="248"/>
+      <c r="T21" s="248"/>
+      <c r="U21" s="248"/>
+      <c r="V21" s="248"/>
+      <c r="W21" s="248"/>
+      <c r="X21" s="248"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="275" t="s">
+      <c r="P23" s="245" t="s">
         <v>187</v>
       </c>
-      <c r="Q23" s="275"/>
-      <c r="R23" s="275"/>
-      <c r="S23" s="275"/>
-      <c r="T23" s="275"/>
-      <c r="U23" s="276" t="s">
+      <c r="Q23" s="245"/>
+      <c r="R23" s="245"/>
+      <c r="S23" s="245"/>
+      <c r="T23" s="245"/>
+      <c r="U23" s="246" t="s">
         <v>188</v>
       </c>
-      <c r="V23" s="276"/>
-      <c r="W23" s="276"/>
-      <c r="X23" s="276"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="275" t="s">
+      <c r="P24" s="245" t="s">
         <v>189</v>
       </c>
-      <c r="Q24" s="275"/>
-      <c r="R24" s="275"/>
-      <c r="S24" s="275"/>
-      <c r="T24" s="275"/>
-      <c r="U24" s="277" t="s">
+      <c r="Q24" s="245"/>
+      <c r="R24" s="245"/>
+      <c r="S24" s="245"/>
+      <c r="T24" s="245"/>
+      <c r="U24" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="V24" s="277"/>
-      <c r="W24" s="277"/>
-      <c r="X24" s="277"/>
+      <c r="V24" s="247"/>
+      <c r="W24" s="247"/>
+      <c r="X24" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -7845,25 +7857,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>
